--- a/data/trans_dic/P13A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Edad-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 10,43</t>
+          <t>2,5; 10,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,15</t>
+          <t>1,22; 4,98</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,11</t>
+          <t>0,23; 2,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,92</t>
+          <t>1,0; 3,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,65</t>
+          <t>0,89; 2,76</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,7</t>
+          <t>0,49; 2,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,54</t>
+          <t>2,28; 4,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,17</t>
+          <t>1,49; 3,17</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,17</t>
+          <t>0,38; 2,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,78</t>
+          <t>4,81; 9,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,06</t>
+          <t>2,85; 5,54</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,08</t>
+          <t>0,92; 2,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,3</t>
+          <t>4,27; 7,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,64</t>
+          <t>2,87; 4,67</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,21</t>
+          <t>0,77; 2,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,95</t>
+          <t>2,53; 5,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,56</t>
+          <t>2,19; 3,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,61</t>
+          <t>0,82; 1,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,26</t>
+          <t>3,73; 5,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,42</t>
+          <t>2,51; 3,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,12</t>
+          <t>2,47; 10,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,98</t>
+          <t>1,1; 5,15</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,84</t>
+          <t>0,23; 3,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,63</t>
+          <t>0,96; 3,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,76</t>
+          <t>0,82; 2,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,96</t>
+          <t>0,48; 2,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,75</t>
+          <t>2,14; 4,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,17</t>
+          <t>1,54; 3,17</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,14</t>
+          <t>0,4; 2,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,88</t>
+          <t>4,88; 9,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,54</t>
+          <t>2,91; 6,06</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,94</t>
+          <t>0,89; 3,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,27</t>
+          <t>4,15; 7,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,67</t>
+          <t>2,91; 4,64</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,13</t>
+          <t>0,76; 2,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,02</t>
+          <t>2,65; 4,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,63</t>
+          <t>2,13; 3,56</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,65</t>
+          <t>0,84; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,25</t>
+          <t>3,76; 5,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,38</t>
+          <t>2,5; 3,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -584,19 +584,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 10,43</t>
+          <t>2,42; 10,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,15</t>
+          <t>0,99; 4,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,11</t>
+          <t>0,23; 3,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,92</t>
+          <t>0,78; 3,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,65</t>
+          <t>0,76; 2,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,7</t>
+          <t>0,51; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,54</t>
+          <t>2,17; 4,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,17</t>
+          <t>1,56; 3,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,17</t>
+          <t>0,16; 1,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,78</t>
+          <t>4,48; 8,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,06</t>
+          <t>1,89; 4,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,08</t>
+          <t>0,91; 3,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -789,14 +789,14 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,64</t>
+          <t>2,9; 4,66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,21</t>
+          <t>0,42; 2,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,95</t>
+          <t>0,81; 4,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,56</t>
+          <t>0,97; 3,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,35%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,61</t>
+          <t>0,75; 3,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,26</t>
+          <t>3,27; 6,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,42</t>
+          <t>2,46; 4,61</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 1,51</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 4,95</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 3,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
